--- a/public/excel/template-jurusan.xlsx
+++ b/public/excel/template-jurusan.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Office\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCB054AE-CBB9-4545-ADEC-BB74473E2661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BCBB8B-130C-4255-8C02-26AD023C3472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAF312F7-B2B6-4101-9448-ABA68A124D61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3EF7C8AC-5AEC-41C9-BF37-CE188B7641EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,9 +34,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>jurusan</t>
+    <t>nama jurusan 1</t>
+  </si>
+  <si>
+    <t>nama jurusan 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SILAHKAN MASUKKAN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NAMA JURUSAN</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -46,13 +69,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,7 +89,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -86,8 +108,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,25 +424,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C356AF8C-48D5-4ADE-AE37-4FFAC6216C2A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F14B01B-4256-480B-813A-49747942C42F}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>